--- a/XlsSerializer.Examples.Web/data/Xlsx/InheritedModelProperties.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/InheritedModelProperties.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>c560ed29-9932-47b7-9ca5-42b34296aa9b</t>
+    <t>83672c9e-a242-49b4-8f64-f1cc0eccaa5a</t>
   </si>
   <si>
-    <t>8f6350e1-6f36-48ae-bb17-a08ad6926eaa</t>
+    <t>e74be7dd-68f9-48a9-9f5f-f778df3fb464</t>
   </si>
 </sst>
 </file>

--- a/XlsSerializer.Examples.Web/data/Xlsx/InheritedModelProperties.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/InheritedModelProperties.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>83672c9e-a242-49b4-8f64-f1cc0eccaa5a</t>
+    <t>edfdc0ba-582b-427a-a25f-3ba8adda9a0f</t>
   </si>
   <si>
-    <t>e74be7dd-68f9-48a9-9f5f-f778df3fb464</t>
+    <t>fc826d32-fc43-41b0-b4d9-81dee23db6be</t>
   </si>
 </sst>
 </file>
